--- a/frontend/public/templates/Staff.xlsx
+++ b/frontend/public/templates/Staff.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,10 +416,16 @@
         <v>DepartmentCode</v>
       </c>
       <c r="E1" t="str">
-        <v>Role</v>
+        <v>Password</v>
       </c>
       <c r="F1" t="str">
-        <v>Password</v>
+        <v>Designation</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Qualification</v>
       </c>
     </row>
     <row r="2">
@@ -436,15 +442,21 @@
         <v>IT</v>
       </c>
       <c r="E2" t="str">
-        <v>staff</v>
+        <v>StaffPass123!</v>
       </c>
       <c r="F2" t="str">
-        <v>Password1!</v>
+        <v>Assistant Professor</v>
+      </c>
+      <c r="G2" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="H2" t="str">
+        <v>M.Tech Computer Science</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
   </ignoredErrors>
 </worksheet>
 </file>